--- a/Bin_data/Turkish/Turkish74.xlsx
+++ b/Bin_data/Turkish/Turkish74.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Mol WT</t>
-  </si>
-  <si>
-    <t>Unnamed: 57</t>
-  </si>
-  <si>
-    <t>Unnamed: 58</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>RF</t>
   </si>
@@ -383,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG31"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -558,17 +549,8 @@
       <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>0.03</v>
       </c>
@@ -737,17 +719,8 @@
       <c r="BD2">
         <v>0</v>
       </c>
-      <c r="BE2">
-        <v>8679.376630471397</v>
-      </c>
-      <c r="BF2">
-        <v>54</v>
-      </c>
-      <c r="BG2">
-        <v>55</v>
-      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>0.06</v>
       </c>
@@ -916,17 +889,8 @@
       <c r="BD3">
         <v>0</v>
       </c>
-      <c r="BE3">
-        <v>2661.899396560176</v>
-      </c>
-      <c r="BF3">
-        <v>0.6666626476800001</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>0.09</v>
       </c>
@@ -1095,17 +1059,8 @@
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BE4">
-        <v>1684.687875979712</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>0.12</v>
       </c>
@@ -1274,17 +1229,8 @@
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BE5">
-        <v>1194.76907315292</v>
-      </c>
-      <c r="BF5">
-        <v>0.179704254</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>0.15</v>
       </c>
@@ -1453,17 +1399,8 @@
       <c r="BD6">
         <v>0</v>
       </c>
-      <c r="BE6">
-        <v>914.3688264567541</v>
-      </c>
-      <c r="BF6">
-        <v>0.07514370072</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>0.18</v>
       </c>
@@ -1632,17 +1569,8 @@
       <c r="BD7">
         <v>0.05488098048</v>
       </c>
-      <c r="BE7">
-        <v>1480.377839457335</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>0.21</v>
       </c>
@@ -1811,17 +1739,8 @@
       <c r="BD8">
         <v>0</v>
       </c>
-      <c r="BE8">
-        <v>1627.441487615264</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0.05488098048</v>
-      </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:56">
       <c r="A9" s="1">
         <v>0.24</v>
       </c>
@@ -1990,17 +1909,8 @@
       <c r="BD9">
         <v>0</v>
       </c>
-      <c r="BE9">
-        <v>1473.178044906549</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:56">
       <c r="A10" s="1">
         <v>0.27</v>
       </c>
@@ -2169,17 +2079,8 @@
       <c r="BD10">
         <v>0</v>
       </c>
-      <c r="BE10">
-        <v>1220.676565264282</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:56">
       <c r="A11" s="1">
         <v>0.3</v>
       </c>
@@ -2348,17 +2249,8 @@
       <c r="BD11">
         <v>0</v>
       </c>
-      <c r="BE11">
-        <v>1521.411448504243</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:56">
       <c r="A12" s="1">
         <v>0.33</v>
       </c>
@@ -2527,17 +2419,8 @@
       <c r="BD12">
         <v>0</v>
       </c>
-      <c r="BE12">
-        <v>1006.86474790649</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:56">
       <c r="A13" s="1">
         <v>0.36</v>
       </c>
@@ -2706,17 +2589,8 @@
       <c r="BD13">
         <v>0</v>
       </c>
-      <c r="BE13">
-        <v>534.2175291623089</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:56">
       <c r="A14" s="1">
         <v>0.39</v>
       </c>
@@ -2885,17 +2759,8 @@
       <c r="BD14">
         <v>0</v>
       </c>
-      <c r="BE14">
-        <v>1228.61868535292</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:56">
       <c r="A15" s="1">
         <v>0.42</v>
       </c>
@@ -3064,17 +2929,8 @@
       <c r="BD15">
         <v>0</v>
       </c>
-      <c r="BE15">
-        <v>635.4046820952743</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:56">
       <c r="A16" s="1">
         <v>0.45</v>
       </c>
@@ -3243,17 +3099,8 @@
       <c r="BD16">
         <v>0</v>
       </c>
-      <c r="BE16">
-        <v>482.8975483518907</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:56">
       <c r="A17" s="1">
         <v>0.48</v>
       </c>
@@ -3422,17 +3269,8 @@
       <c r="BD17">
         <v>0</v>
       </c>
-      <c r="BE17">
-        <v>266.1172228034459</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:56">
       <c r="A18" s="1">
         <v>0.51</v>
       </c>
@@ -3601,17 +3439,8 @@
       <c r="BD18">
         <v>0</v>
       </c>
-      <c r="BE18">
-        <v>387.3999226070304</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:56">
       <c r="A19" s="1">
         <v>0.54</v>
       </c>
@@ -3780,17 +3609,8 @@
       <c r="BD19">
         <v>0</v>
       </c>
-      <c r="BE19">
-        <v>538.8664125331808</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:56">
       <c r="A20" s="1">
         <v>0.57</v>
       </c>
@@ -3959,17 +3779,8 @@
       <c r="BD20">
         <v>0</v>
       </c>
-      <c r="BE20">
-        <v>478.7999183631331</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:56">
       <c r="A21" s="1">
         <v>0.6</v>
       </c>
@@ -4138,17 +3949,8 @@
       <c r="BD21">
         <v>0</v>
       </c>
-      <c r="BE21">
-        <v>393.1179807079529</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:56">
       <c r="A22" s="1">
         <v>0.63</v>
       </c>
@@ -4317,17 +4119,8 @@
       <c r="BD22">
         <v>0</v>
       </c>
-      <c r="BE22">
-        <v>374.2563191910913</v>
-      </c>
-      <c r="BF22">
-        <v>0.19677827412</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:56">
       <c r="A23" s="1">
         <v>0.6599999999999999</v>
       </c>
@@ -4496,17 +4289,8 @@
       <c r="BD23">
         <v>0</v>
       </c>
-      <c r="BE23">
-        <v>191.5535759691337</v>
-      </c>
-      <c r="BF23">
-        <v>0.21588834684</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:56">
       <c r="A24" s="1">
         <v>0.6899999999999999</v>
       </c>
@@ -4675,17 +4459,8 @@
       <c r="BD24">
         <v>0</v>
       </c>
-      <c r="BE24">
-        <v>311.8751561213543</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:56">
       <c r="A25" s="1">
         <v>0.72</v>
       </c>
@@ -4854,17 +4629,8 @@
       <c r="BD25">
         <v>0</v>
       </c>
-      <c r="BE25">
-        <v>273.4951646232248</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:56">
       <c r="A26" s="1">
         <v>0.75</v>
       </c>
@@ -5033,17 +4799,8 @@
       <c r="BD26">
         <v>0</v>
       </c>
-      <c r="BE26">
-        <v>236.5014409023414</v>
-      </c>
-      <c r="BF26">
-        <v>0.11733604344</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:56">
       <c r="A27" s="1">
         <v>0.78</v>
       </c>
@@ -5212,729 +4969,1364 @@
       <c r="BD27">
         <v>0</v>
       </c>
-      <c r="BE27">
-        <v>113.4286931882739</v>
-      </c>
-      <c r="BF27">
-        <v>0.10540003428</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:56">
       <c r="A28" s="1">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56">
+      <c r="A29" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56">
+      <c r="A30" s="1">
         <v>0.87</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>0.23829554688</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>1.81455037956</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>0.10126370256</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>0.04687617648</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
         <v>0.05106500688</v>
       </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
         <v>0.55553157204</v>
       </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>138.6283509517569</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
+      <c r="BD30">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
-      <c r="A29" s="1">
+    <row r="31" spans="1:56">
+      <c r="A31" s="1">
         <v>0.8999999999999999</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0.10304766192</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>0.13605588888</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.11190533436</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.29948405844</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.3175370766</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.2991799644</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.95375779212</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.87640964472</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8981497408800001</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.46273708488</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.5299683660000001</v>
       </c>
-      <c r="X29">
+      <c r="X31">
         <v>0.59255237988</v>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <v>0.46487204964</v>
       </c>
-      <c r="Z29">
+      <c r="Z31">
         <v>0.45540574656</v>
       </c>
-      <c r="AA29">
+      <c r="AA31">
         <v>0.50570357568</v>
       </c>
-      <c r="AB29">
+      <c r="AB31">
         <v>0.17204525532</v>
       </c>
-      <c r="AC29">
+      <c r="AC31">
         <v>0.35712666864</v>
       </c>
-      <c r="AD29">
+      <c r="AD31">
         <v>0.5500635219600001</v>
       </c>
-      <c r="AE29">
+      <c r="AE31">
         <v>0.60288587928</v>
       </c>
-      <c r="AF29">
+      <c r="AF31">
         <v>0.2491933656</v>
       </c>
-      <c r="AG29">
+      <c r="AG31">
         <v>0.4297918674</v>
       </c>
-      <c r="AH29">
+      <c r="AH31">
         <v>0.24876081852</v>
       </c>
-      <c r="AI29">
+      <c r="AI31">
         <v>0.35303901852</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ31">
         <v>0.4480730805600001</v>
       </c>
-      <c r="AK29">
+      <c r="AK31">
         <v>0.38118893244</v>
       </c>
-      <c r="AL29">
+      <c r="AL31">
         <v>0.26706178092</v>
       </c>
-      <c r="AM29">
+      <c r="AM31">
         <v>0.14382187644</v>
       </c>
-      <c r="AN29">
+      <c r="AN31">
         <v>0.3232753095600001</v>
       </c>
-      <c r="AO29">
+      <c r="AO31">
         <v>0.47373591792</v>
       </c>
-      <c r="AP29">
+      <c r="AP31">
         <v>0.33732039372</v>
       </c>
-      <c r="AQ29">
+      <c r="AQ31">
         <v>0.50552644104</v>
       </c>
-      <c r="AR29">
+      <c r="AR31">
         <v>0.4916512446</v>
       </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
         <v>0.3852136284</v>
       </c>
-      <c r="AU29">
+      <c r="AU31">
         <v>0.16308596004</v>
       </c>
-      <c r="AV29">
+      <c r="AV31">
         <v>0.28319917812</v>
       </c>
-      <c r="AW29">
+      <c r="AW31">
         <v>0.2379678312</v>
       </c>
-      <c r="AX29">
+      <c r="AX31">
         <v>0.61389538908</v>
       </c>
-      <c r="AY29">
+      <c r="AY31">
         <v>0.6435704754</v>
       </c>
-      <c r="AZ29">
+      <c r="AZ31">
         <v>1.11482612112</v>
       </c>
-      <c r="BA29">
+      <c r="BA31">
         <v>1.21575314616</v>
       </c>
-      <c r="BB29">
+      <c r="BB31">
         <v>1.90525249836</v>
       </c>
-      <c r="BC29">
+      <c r="BC31">
         <v>0.82848050736</v>
       </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>510.3204194915687</v>
-      </c>
-      <c r="BF29">
-        <v>1.49313664332</v>
-      </c>
-      <c r="BG29">
+      <c r="BD31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
-      <c r="A30" s="1">
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
         <v>0.9299999999999999</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>2.58825717192</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>2.90480457372</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>2.72278019892</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <v>2.44954282512</v>
       </c>
-      <c r="J30">
+      <c r="J32">
         <v>2.74514054292</v>
       </c>
-      <c r="K30">
+      <c r="K32">
         <v>2.9698649874</v>
       </c>
-      <c r="L30">
+      <c r="L32">
         <v>2.95039660704</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>3.285165753</v>
       </c>
-      <c r="N30">
+      <c r="N32">
         <v>3.43422339084</v>
       </c>
-      <c r="O30">
+      <c r="O32">
         <v>3.52715324604</v>
       </c>
-      <c r="P30">
+      <c r="P32">
         <v>3.57696608472</v>
       </c>
-      <c r="Q30">
+      <c r="Q32">
         <v>3.41427842868</v>
       </c>
-      <c r="R30">
+      <c r="R32">
         <v>4.17292833408</v>
       </c>
-      <c r="S30">
+      <c r="S32">
         <v>4.2945574308</v>
       </c>
-      <c r="T30">
+      <c r="T32">
         <v>4.115897397119999</v>
       </c>
-      <c r="U30">
+      <c r="U32">
         <v>4.183856523480001</v>
       </c>
-      <c r="V30">
+      <c r="V32">
         <v>3.71107382448</v>
       </c>
-      <c r="W30">
+      <c r="W32">
         <v>3.80168660148</v>
       </c>
-      <c r="X30">
+      <c r="X32">
         <v>3.959410062</v>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <v>4.11294967092</v>
       </c>
-      <c r="Z30">
+      <c r="Z32">
         <v>4.54201136964</v>
       </c>
-      <c r="AA30">
+      <c r="AA32">
         <v>4.23235484832</v>
       </c>
-      <c r="AB30">
+      <c r="AB32">
         <v>3.4554039252</v>
       </c>
-      <c r="AC30">
+      <c r="AC32">
         <v>4.06398610488</v>
       </c>
-      <c r="AD30">
+      <c r="AD32">
         <v>3.76427363016</v>
       </c>
-      <c r="AE30">
+      <c r="AE32">
         <v>3.9864687336</v>
       </c>
-      <c r="AF30">
+      <c r="AF32">
         <v>3.53880828492</v>
       </c>
-      <c r="AG30">
+      <c r="AG32">
         <v>3.662721378480001</v>
       </c>
-      <c r="AH30">
+      <c r="AH32">
         <v>3.54573645108</v>
       </c>
-      <c r="AI30">
+      <c r="AI32">
         <v>3.47512921164</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ32">
         <v>3.7046188656</v>
       </c>
-      <c r="AK30">
+      <c r="AK32">
         <v>3.9926471478</v>
       </c>
-      <c r="AL30">
+      <c r="AL32">
         <v>3.76072158828</v>
       </c>
-      <c r="AM30">
+      <c r="AM32">
         <v>3.37613606316</v>
       </c>
-      <c r="AN30">
+      <c r="AN32">
         <v>3.547285743</v>
       </c>
-      <c r="AO30">
+      <c r="AO32">
         <v>3.85265861544</v>
       </c>
-      <c r="AP30">
+      <c r="AP32">
         <v>3.98506144812</v>
       </c>
-      <c r="AQ30">
+      <c r="AQ32">
         <v>4.16344914144</v>
       </c>
-      <c r="AR30">
+      <c r="AR32">
         <v>4.279813710360001</v>
       </c>
-      <c r="AS30">
+      <c r="AS32">
         <v>4.535587002720001</v>
       </c>
-      <c r="AT30">
+      <c r="AT32">
         <v>4.42369206852</v>
       </c>
-      <c r="AU30">
+      <c r="AU32">
         <v>4.04347560636</v>
       </c>
-      <c r="AV30">
+      <c r="AV32">
         <v>4.68183150792</v>
       </c>
-      <c r="AW30">
+      <c r="AW32">
         <v>4.861388223480001</v>
       </c>
-      <c r="AX30">
+      <c r="AX32">
         <v>5.71671231828</v>
       </c>
-      <c r="AY30">
+      <c r="AY32">
         <v>7.23275929704</v>
       </c>
-      <c r="AZ30">
+      <c r="AZ32">
         <v>9.54608608188</v>
       </c>
-      <c r="BA30">
+      <c r="BA32">
         <v>9.66951435096</v>
       </c>
-      <c r="BB30">
+      <c r="BB32">
         <v>11.76440906472</v>
       </c>
-      <c r="BC30">
+      <c r="BC32">
         <v>10.4491414344</v>
       </c>
-      <c r="BD30">
+      <c r="BD32">
         <v>0.23104779708</v>
       </c>
-      <c r="BE30">
-        <v>623.7447694317739</v>
-      </c>
-      <c r="BF30">
-        <v>0</v>
-      </c>
-      <c r="BG30">
-        <v>0.23104779708</v>
-      </c>
     </row>
-    <row r="31" spans="1:59">
-      <c r="A31" s="1">
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>0.96</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
         <v>3.55960628148</v>
       </c>
-      <c r="BE31">
-        <v>17.81248003517877</v>
-      </c>
-      <c r="BF31">
-        <v>0</v>
-      </c>
-      <c r="BG31">
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Turkish/Turkish74.xlsx
+++ b/Bin_data/Turkish/Turkish74.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5654,6 +5654,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
